--- a/iterationsNORMAL/iter_4/data.xlsx
+++ b/iterationsNORMAL/iter_4/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-17.47784449459201</v>
+        <v>-14.81985393077927</v>
       </c>
       <c r="B2" t="n">
-        <v>-27.90811080009268</v>
+        <v>36.52010464093203</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.48442378401757</v>
+        <v>34.94474697178722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.77073106951622</v>
+        <v>-14.56806050034345</v>
       </c>
       <c r="B3" t="n">
-        <v>52.90416408636415</v>
+        <v>-29.30584532174039</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.42718249803494</v>
+        <v>-28.40777279767484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87.3982919745262</v>
+        <v>-9.254415362653928</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.99370597326465</v>
+        <v>-17.67032797727603</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.354797458513324</v>
+        <v>24.94798555619516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-26.94654346066202</v>
+        <v>-23.11703722037036</v>
       </c>
       <c r="B5" t="n">
-        <v>-30.48964686984016</v>
+        <v>-7.564725738652377</v>
       </c>
       <c r="C5" t="n">
-        <v>12.61778500139781</v>
+        <v>17.31718428644734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-37.13400332807329</v>
+        <v>32.61651899341701</v>
       </c>
       <c r="B6" t="n">
-        <v>-22.59878499826361</v>
+        <v>16.03140086180411</v>
       </c>
       <c r="C6" t="n">
-        <v>48.38738103062963</v>
+        <v>-23.86134800194088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-27.75180537816018</v>
+        <v>-11.23125717759216</v>
       </c>
       <c r="B7" t="n">
-        <v>-29.75389722838144</v>
+        <v>-15.48096037320627</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.59296350304813</v>
+        <v>23.68189916372677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38.40896819276871</v>
+        <v>22.48204726282933</v>
       </c>
       <c r="B8" t="n">
-        <v>-21.53168927077365</v>
+        <v>32.04745454759752</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4543783549553</v>
+        <v>32.74221164620609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13.9714751200934</v>
+        <v>15.10474601467493</v>
       </c>
       <c r="B9" t="n">
-        <v>65.28650038353668</v>
+        <v>23.16824048179494</v>
       </c>
       <c r="C9" t="n">
-        <v>-19.10892527202707</v>
+        <v>25.12209005919947</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.62711596545611</v>
+        <v>-42.71671978775588</v>
       </c>
       <c r="B10" t="n">
-        <v>-30.74768670096942</v>
+        <v>-25.95127768898196</v>
       </c>
       <c r="C10" t="n">
-        <v>6.536621584458299</v>
+        <v>18.08496161339784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-27.4339679181482</v>
+        <v>37.88070488256384</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.416843175584332</v>
+        <v>-34.74047444339243</v>
       </c>
       <c r="C11" t="n">
-        <v>-19.71084078098656</v>
+        <v>-24.52486653627282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-10.50714762613783</v>
+        <v>-18.35247712425933</v>
       </c>
       <c r="B12" t="n">
-        <v>-20.2666521501823</v>
+        <v>-27.98100578066202</v>
       </c>
       <c r="C12" t="n">
-        <v>-26.19813637447668</v>
+        <v>17.15514130098151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-18.01092369198547</v>
+        <v>-15.12100145391891</v>
       </c>
       <c r="B13" t="n">
-        <v>-34.50691851449761</v>
+        <v>31.64635485692306</v>
       </c>
       <c r="C13" t="n">
-        <v>-30.67821545591978</v>
+        <v>3.437154863082858</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-27.29496278341684</v>
+        <v>-18.56982062747081</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.40164489015971</v>
+        <v>19.1720719742387</v>
       </c>
       <c r="C14" t="n">
-        <v>-20.77701500661081</v>
+        <v>-19.5715554876444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38.77022434304011</v>
+        <v>16.37178866949903</v>
       </c>
       <c r="B15" t="n">
-        <v>-32.96827363870894</v>
+        <v>35.30537984776221</v>
       </c>
       <c r="C15" t="n">
-        <v>3.651395574922216</v>
+        <v>13.91250540471359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-25.68210565128027</v>
+        <v>34.02651062509269</v>
       </c>
       <c r="B16" t="n">
-        <v>-29.05789183105598</v>
+        <v>1.074443118739846</v>
       </c>
       <c r="C16" t="n">
-        <v>29.27087084188545</v>
+        <v>-33.28773386926504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.955161759447883</v>
+        <v>-20.89011313326803</v>
       </c>
       <c r="B17" t="n">
-        <v>-13.76050226532342</v>
+        <v>-32.46809731515425</v>
       </c>
       <c r="C17" t="n">
-        <v>-35.81761739863991</v>
+        <v>12.37943219389204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-33.63488716650502</v>
+        <v>17.42665201498376</v>
       </c>
       <c r="B18" t="n">
-        <v>-19.5772278513322</v>
+        <v>-13.7527037543127</v>
       </c>
       <c r="C18" t="n">
-        <v>34.66458816697534</v>
+        <v>34.70952275986713</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-29.18810084737361</v>
+        <v>-28.53915601753871</v>
       </c>
       <c r="B19" t="n">
-        <v>-22.4609929046966</v>
+        <v>-32.44805537394225</v>
       </c>
       <c r="C19" t="n">
-        <v>-31.61986461375542</v>
+        <v>-34.5971791898421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-38.12656055063323</v>
+        <v>-20.88180143801415</v>
       </c>
       <c r="B20" t="n">
-        <v>-32.73321968688135</v>
+        <v>21.0798817639315</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.780928840762508</v>
+        <v>16.60166173131964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>41.95081030667352</v>
+        <v>-37.85027022443635</v>
       </c>
       <c r="B21" t="n">
-        <v>61.32963039227116</v>
+        <v>-32.9609144732098</v>
       </c>
       <c r="C21" t="n">
-        <v>-17.12628935251146</v>
+        <v>-19.52945545058346</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>86.47841869571698</v>
+        <v>19.28156830521545</v>
       </c>
       <c r="B22" t="n">
-        <v>-25.91503599574359</v>
+        <v>-13.09269861744317</v>
       </c>
       <c r="C22" t="n">
-        <v>21.29950832552949</v>
+        <v>-17.8227492506231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-3.565134631373192</v>
+        <v>-17.57544751340931</v>
       </c>
       <c r="B23" t="n">
-        <v>5.864264429133639</v>
+        <v>36.60867656942906</v>
       </c>
       <c r="C23" t="n">
-        <v>59.9308330265394</v>
+        <v>-17.58626001003005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.897257650439</v>
+        <v>-36.51741845034613</v>
       </c>
       <c r="B24" t="n">
-        <v>-13.1450241480939</v>
+        <v>27.67956576177957</v>
       </c>
       <c r="C24" t="n">
-        <v>54.11933390824404</v>
+        <v>-11.07000520213516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13.90162042116565</v>
+        <v>11.25806328087853</v>
       </c>
       <c r="B25" t="n">
-        <v>-23.54914151419121</v>
+        <v>23.50746992589817</v>
       </c>
       <c r="C25" t="n">
-        <v>-30.85041031111687</v>
+        <v>-26.2974268074073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.022690773636725</v>
+        <v>-42.28896953803443</v>
       </c>
       <c r="B26" t="n">
-        <v>28.47023935534594</v>
+        <v>-30.57931550854676</v>
       </c>
       <c r="C26" t="n">
-        <v>30.50267632194855</v>
+        <v>-25.59408579176081</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31.88831307183444</v>
+        <v>11.74123314560623</v>
       </c>
       <c r="B27" t="n">
-        <v>-25.12884815181981</v>
+        <v>30.8480789412043</v>
       </c>
       <c r="C27" t="n">
-        <v>21.80303796865866</v>
+        <v>-14.09016844100318</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.67442095976325</v>
+        <v>19.51422387131121</v>
       </c>
       <c r="B28" t="n">
-        <v>-32.81111904611039</v>
+        <v>26.21249796440064</v>
       </c>
       <c r="C28" t="n">
-        <v>-23.89327398161547</v>
+        <v>33.62045383685945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.8349646007367</v>
+        <v>23.09777502011062</v>
       </c>
       <c r="B29" t="n">
-        <v>15.05198280575597</v>
+        <v>-31.72635712384739</v>
       </c>
       <c r="C29" t="n">
-        <v>-16.3789324085033</v>
+        <v>12.34615001408576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-10.0963119971016</v>
+        <v>35.09924831003108</v>
       </c>
       <c r="B30" t="n">
-        <v>-25.69316920495996</v>
+        <v>-26.4121945413093</v>
       </c>
       <c r="C30" t="n">
-        <v>19.17759634478858</v>
+        <v>34.40981911697914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>24.92919108519032</v>
+        <v>-42.13073123136753</v>
       </c>
       <c r="B31" t="n">
-        <v>-17.14090891304987</v>
+        <v>-23.51785720015874</v>
       </c>
       <c r="C31" t="n">
-        <v>64.59660304114168</v>
+        <v>-27.3066332174894</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-30.25089185491212</v>
+        <v>-28.12474954445242</v>
       </c>
       <c r="B32" t="n">
-        <v>71.63598989654474</v>
+        <v>-16.08359766145263</v>
       </c>
       <c r="C32" t="n">
-        <v>-16.84536171029023</v>
+        <v>-15.39714264019441</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>70.44856480556329</v>
+        <v>27.32352017715733</v>
       </c>
       <c r="B33" t="n">
-        <v>16.84817926252437</v>
+        <v>20.89356932319066</v>
       </c>
       <c r="C33" t="n">
-        <v>-14.24126574145792</v>
+        <v>-37.33219546169586</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31.64578218144216</v>
+        <v>-21.01871441177848</v>
       </c>
       <c r="B34" t="n">
-        <v>12.42245352471854</v>
+        <v>-8.225811632329359</v>
       </c>
       <c r="C34" t="n">
-        <v>20.36902220902945</v>
+        <v>25.71079403448719</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>86.87145752197401</v>
+        <v>-23.35632298729865</v>
       </c>
       <c r="B35" t="n">
-        <v>11.56367748765651</v>
+        <v>33.15343236138528</v>
       </c>
       <c r="C35" t="n">
-        <v>30.83501653806735</v>
+        <v>26.97786988082721</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-5.579050547694976</v>
+        <v>-23.45400952375019</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.395108948186978</v>
+        <v>36.76457998692329</v>
       </c>
       <c r="C36" t="n">
-        <v>33.64043313002768</v>
+        <v>-12.19907646414603</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67.06290532231542</v>
+        <v>-25.09638764597798</v>
       </c>
       <c r="B37" t="n">
-        <v>-28.38018815415531</v>
+        <v>-18.35132637747025</v>
       </c>
       <c r="C37" t="n">
-        <v>-8.990514979519588</v>
+        <v>-6.717271397337012</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>33.30216794069921</v>
+        <v>-30.59427706999943</v>
       </c>
       <c r="B38" t="n">
-        <v>20.20189622429878</v>
+        <v>31.3958171548035</v>
       </c>
       <c r="C38" t="n">
-        <v>12.81666431096155</v>
+        <v>14.75507103239799</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-20.61736582991603</v>
+        <v>-32.94093138929853</v>
       </c>
       <c r="B39" t="n">
-        <v>-20.16427050175305</v>
+        <v>-25.03056849153844</v>
       </c>
       <c r="C39" t="n">
-        <v>5.422931346604096</v>
+        <v>-28.58093738964862</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-5.469354669154655</v>
+        <v>21.25223695943095</v>
       </c>
       <c r="B40" t="n">
-        <v>-28.02841801938913</v>
+        <v>-29.490707487494</v>
       </c>
       <c r="C40" t="n">
-        <v>-25.12845104334531</v>
+        <v>-34.59500584348078</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43.42171072910639</v>
+        <v>33.38434936769808</v>
       </c>
       <c r="B41" t="n">
-        <v>-16.41323946558083</v>
+        <v>30.08692535537529</v>
       </c>
       <c r="C41" t="n">
-        <v>-21.72083447552163</v>
+        <v>28.07532844087442</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>42.42255882308855</v>
+        <v>-11.39674537144199</v>
       </c>
       <c r="B42" t="n">
-        <v>-46.92588931003133</v>
+        <v>25.36510442007422</v>
       </c>
       <c r="C42" t="n">
-        <v>-24.51062363355892</v>
+        <v>16.10579531552687</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-40.0335064516637</v>
+        <v>30.21910818845691</v>
       </c>
       <c r="B43" t="n">
-        <v>24.88949255251301</v>
+        <v>-37.63875871699386</v>
       </c>
       <c r="C43" t="n">
-        <v>18.41163139164888</v>
+        <v>6.851824940154304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-23.60539674022868</v>
+        <v>-29.18850715705932</v>
       </c>
       <c r="B44" t="n">
-        <v>71.08517409239361</v>
+        <v>-16.38574009760269</v>
       </c>
       <c r="C44" t="n">
-        <v>-27.99296486546775</v>
+        <v>29.8009228013866</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-27.19239180931205</v>
+        <v>-38.95951222146497</v>
       </c>
       <c r="B45" t="n">
-        <v>-27.77856135784187</v>
+        <v>-25.95152882318135</v>
       </c>
       <c r="C45" t="n">
-        <v>-4.790445852767759</v>
+        <v>-27.37838139547818</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15.99828813452499</v>
+        <v>17.01922087179289</v>
       </c>
       <c r="B46" t="n">
-        <v>-27.63224415041259</v>
+        <v>-11.99460463607976</v>
       </c>
       <c r="C46" t="n">
-        <v>-31.5396051876844</v>
+        <v>37.97593749454435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-28.37258549510747</v>
+        <v>25.03692250427299</v>
       </c>
       <c r="B47" t="n">
-        <v>5.07640971112426</v>
+        <v>27.18048228398107</v>
       </c>
       <c r="C47" t="n">
-        <v>-28.89642051789701</v>
+        <v>22.37327403717111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38.7718064170591</v>
+        <v>9.083618428915464</v>
       </c>
       <c r="B48" t="n">
-        <v>-27.00435573841154</v>
+        <v>-18.75023084180476</v>
       </c>
       <c r="C48" t="n">
-        <v>-31.30290798740189</v>
+        <v>35.71809827133745</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19.07708399769757</v>
+        <v>-18.26587744904647</v>
       </c>
       <c r="B49" t="n">
-        <v>-25.19623806139594</v>
+        <v>-44.27807123047349</v>
       </c>
       <c r="C49" t="n">
-        <v>79.0579983640998</v>
+        <v>22.07406379677316</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-28.12931336901221</v>
+        <v>-19.03366692682096</v>
       </c>
       <c r="B50" t="n">
-        <v>45.49603552188419</v>
+        <v>-29.76535379492169</v>
       </c>
       <c r="C50" t="n">
-        <v>28.53435464570201</v>
+        <v>-30.39895445650504</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.348336951989475</v>
+        <v>-29.05003770800482</v>
       </c>
       <c r="B51" t="n">
-        <v>-31.591425526207</v>
+        <v>-22.97262251690351</v>
       </c>
       <c r="C51" t="n">
-        <v>1.13643801242036</v>
+        <v>28.26480301117283</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-27.65110788148724</v>
+        <v>35.24478915014555</v>
       </c>
       <c r="B52" t="n">
-        <v>-26.47549686833168</v>
+        <v>28.42330734726034</v>
       </c>
       <c r="C52" t="n">
-        <v>-32.71205541460877</v>
+        <v>-32.14360244022448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-25.32076992404144</v>
+        <v>-26.25820377732645</v>
       </c>
       <c r="B53" t="n">
-        <v>-47.46902482560538</v>
+        <v>-22.44048336121904</v>
       </c>
       <c r="C53" t="n">
-        <v>-37.65230036643677</v>
+        <v>12.95397088760414</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.224323643776806</v>
+        <v>-25.81510679184647</v>
       </c>
       <c r="B54" t="n">
-        <v>11.28754100811502</v>
+        <v>34.84929922531701</v>
       </c>
       <c r="C54" t="n">
-        <v>40.69029811310185</v>
+        <v>24.48875969114242</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-19.34100051072539</v>
+        <v>-11.43468969227989</v>
       </c>
       <c r="B55" t="n">
-        <v>8.610315238721263</v>
+        <v>17.00638196915356</v>
       </c>
       <c r="C55" t="n">
-        <v>52.94760174532138</v>
+        <v>38.44067766838369</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28.56457555007585</v>
+        <v>-20.26950670539326</v>
       </c>
       <c r="B56" t="n">
-        <v>-38.21514265469802</v>
+        <v>21.91675993207538</v>
       </c>
       <c r="C56" t="n">
-        <v>-9.155822601185093</v>
+        <v>23.55495220621274</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20.44079025001164</v>
+        <v>22.39177778352929</v>
       </c>
       <c r="B57" t="n">
-        <v>-25.72462442879823</v>
+        <v>24.46286452118887</v>
       </c>
       <c r="C57" t="n">
-        <v>13.04358381490848</v>
+        <v>-22.10412129776258</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-32.86264658366254</v>
+        <v>-31.33264015536242</v>
       </c>
       <c r="B58" t="n">
-        <v>-37.01697132392257</v>
+        <v>15.97795887622201</v>
       </c>
       <c r="C58" t="n">
-        <v>27.51227123036919</v>
+        <v>-10.28256168533406</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-29.01413957248732</v>
+        <v>32.42816386121878</v>
       </c>
       <c r="B59" t="n">
-        <v>8.619717753611509</v>
+        <v>-28.23619073461564</v>
       </c>
       <c r="C59" t="n">
-        <v>-24.62385352634438</v>
+        <v>35.01094848114025</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-18.74856134626669</v>
+        <v>-21.00545571261124</v>
       </c>
       <c r="B60" t="n">
-        <v>13.20121588043886</v>
+        <v>16.68699999011057</v>
       </c>
       <c r="C60" t="n">
-        <v>-20.73111057300812</v>
+        <v>14.45901179870044</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13.17524134135971</v>
+        <v>-23.58280627745481</v>
       </c>
       <c r="B61" t="n">
-        <v>-27.39571072538532</v>
+        <v>23.53933121469175</v>
       </c>
       <c r="C61" t="n">
-        <v>59.08702269223745</v>
+        <v>14.53986770249717</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-7.738086582150614</v>
+        <v>26.26440905902817</v>
       </c>
       <c r="B62" t="n">
-        <v>-19.82485261470877</v>
+        <v>-44.67010340875775</v>
       </c>
       <c r="C62" t="n">
-        <v>-24.85589331452242</v>
+        <v>-13.22889560456807</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.333935771012659</v>
+        <v>-18.71976309747815</v>
       </c>
       <c r="B63" t="n">
-        <v>-26.23205807308872</v>
+        <v>12.69141035533771</v>
       </c>
       <c r="C63" t="n">
-        <v>17.44628696060536</v>
+        <v>-18.26607861459042</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>37.57409455300599</v>
+        <v>31.29486861647001</v>
       </c>
       <c r="B64" t="n">
-        <v>-24.98476346312813</v>
+        <v>-21.17408402600713</v>
       </c>
       <c r="C64" t="n">
-        <v>-22.34607187072958</v>
+        <v>-17.75130735075154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-14.9848557137706</v>
+        <v>38.95394491477004</v>
       </c>
       <c r="B65" t="n">
-        <v>-36.31208906479734</v>
+        <v>22.98110908076251</v>
       </c>
       <c r="C65" t="n">
-        <v>-18.46907577810098</v>
+        <v>-29.66101958827095</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.3923565780002704</v>
+        <v>-27.12455167306004</v>
       </c>
       <c r="B66" t="n">
-        <v>-26.27314053314626</v>
+        <v>21.35882053963455</v>
       </c>
       <c r="C66" t="n">
-        <v>42.98281874753319</v>
+        <v>11.46316319068392</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-23.22173000250896</v>
+        <v>22.98149133671938</v>
       </c>
       <c r="B67" t="n">
-        <v>-14.02620884863053</v>
+        <v>-24.66757951244111</v>
       </c>
       <c r="C67" t="n">
-        <v>37.27427709293087</v>
+        <v>-16.42757855294547</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35.5933161561783</v>
+        <v>-19.66574628518556</v>
       </c>
       <c r="B68" t="n">
-        <v>6.768358307372885</v>
+        <v>-13.14533657396944</v>
       </c>
       <c r="C68" t="n">
-        <v>39.32939624046361</v>
+        <v>23.14446816912916</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67.00556539622602</v>
+        <v>21.06069156045584</v>
       </c>
       <c r="B69" t="n">
-        <v>50.47670211529407</v>
+        <v>47.13627599957655</v>
       </c>
       <c r="C69" t="n">
-        <v>-16.39039339324919</v>
+        <v>23.29506612813213</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-28.228079072317</v>
+        <v>35.23325691442336</v>
       </c>
       <c r="B70" t="n">
-        <v>-27.6464750676302</v>
+        <v>-37.70554293491234</v>
       </c>
       <c r="C70" t="n">
-        <v>43.24031107495912</v>
+        <v>23.43609962268754</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-20.33649721487109</v>
+        <v>43.29088560915233</v>
       </c>
       <c r="B71" t="n">
-        <v>39.96908666747327</v>
+        <v>15.27676420135189</v>
       </c>
       <c r="C71" t="n">
-        <v>34.85181213855919</v>
+        <v>-21.83867581861237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>34.56244676614527</v>
+        <v>-22.65203596862676</v>
       </c>
       <c r="B72" t="n">
-        <v>13.91701359976445</v>
+        <v>18.32147233119744</v>
       </c>
       <c r="C72" t="n">
-        <v>39.75471062969739</v>
+        <v>-18.80836426172555</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>44.68696643357533</v>
+        <v>-22.66047270130756</v>
       </c>
       <c r="B73" t="n">
-        <v>-24.20385973209166</v>
+        <v>-42.33036267676499</v>
       </c>
       <c r="C73" t="n">
-        <v>-37.06541431799874</v>
+        <v>43.32601009053512</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-25.54102143533221</v>
+        <v>13.47424429658681</v>
       </c>
       <c r="B74" t="n">
-        <v>44.18001177500022</v>
+        <v>-22.00506323123802</v>
       </c>
       <c r="C74" t="n">
-        <v>-24.93844531208516</v>
+        <v>18.33976260844601</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-16.08167591842509</v>
+        <v>15.18337716618531</v>
       </c>
       <c r="B75" t="n">
-        <v>23.68958571701181</v>
+        <v>-30.6714745297017</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.663627684235019</v>
+        <v>13.79442569469787</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-29.13719293076069</v>
+        <v>-16.83920070389983</v>
       </c>
       <c r="B76" t="n">
-        <v>-27.60512806544079</v>
+        <v>14.77301420817165</v>
       </c>
       <c r="C76" t="n">
-        <v>-30.00016757809631</v>
+        <v>-17.53832134122072</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-24.41716776636942</v>
+        <v>-12.31356047245626</v>
       </c>
       <c r="B77" t="n">
-        <v>-35.03104442481192</v>
+        <v>-22.91798975638664</v>
       </c>
       <c r="C77" t="n">
-        <v>-22.83646977353084</v>
+        <v>-22.36818286127822</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-8.993684021070871</v>
+        <v>-16.61622350368627</v>
       </c>
       <c r="B78" t="n">
-        <v>43.70594216061855</v>
+        <v>-17.95245828570674</v>
       </c>
       <c r="C78" t="n">
-        <v>-27.14181078513143</v>
+        <v>-31.11716075432601</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>58.84023201924913</v>
+        <v>-25.5710143405149</v>
       </c>
       <c r="B79" t="n">
-        <v>33.13310540538671</v>
+        <v>32.9082077542576</v>
       </c>
       <c r="C79" t="n">
-        <v>-33.4314551261915</v>
+        <v>-37.49546213921442</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-18.45638168489618</v>
+        <v>11.9605488225825</v>
       </c>
       <c r="B80" t="n">
-        <v>70.06050291580041</v>
+        <v>-24.12698690486446</v>
       </c>
       <c r="C80" t="n">
-        <v>4.848731505371457</v>
+        <v>36.24563113738287</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>58.30901402809269</v>
+        <v>-36.53134143442497</v>
       </c>
       <c r="B81" t="n">
-        <v>-35.57691137770851</v>
+        <v>-15.68843414985761</v>
       </c>
       <c r="C81" t="n">
-        <v>-17.90555249070215</v>
+        <v>12.02716972777206</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>34.73578711471983</v>
+        <v>23.965566581089</v>
       </c>
       <c r="B82" t="n">
-        <v>-28.7888177924432</v>
+        <v>24.89835650772129</v>
       </c>
       <c r="C82" t="n">
-        <v>-28.49030488503742</v>
+        <v>22.60771499595769</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>22.94765513950114</v>
+        <v>-17.74110724806853</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.502617125553225</v>
+        <v>-14.1079687007672</v>
       </c>
       <c r="C83" t="n">
-        <v>52.77255724428023</v>
+        <v>-28.96305640897862</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-14.45013778763484</v>
+        <v>43.70154112375438</v>
       </c>
       <c r="B84" t="n">
-        <v>-20.62286276260983</v>
+        <v>-27.05966445083737</v>
       </c>
       <c r="C84" t="n">
-        <v>-30.5870241061274</v>
+        <v>-24.89632838061446</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-25.67684582878085</v>
+        <v>-17.23481217344928</v>
       </c>
       <c r="B85" t="n">
-        <v>-12.43225161465964</v>
+        <v>-26.03548703953411</v>
       </c>
       <c r="C85" t="n">
-        <v>-16.25536733100219</v>
+        <v>22.73279111235282</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-19.27998523278721</v>
+        <v>-36.15054693369232</v>
       </c>
       <c r="B86" t="n">
-        <v>42.95005713594978</v>
+        <v>-29.56697216918925</v>
       </c>
       <c r="C86" t="n">
-        <v>-34.85262736004464</v>
+        <v>28.19699596834005</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-26.30743584969021</v>
+        <v>-26.28986805380065</v>
       </c>
       <c r="B87" t="n">
-        <v>6.34578162993397</v>
+        <v>16.59830691213174</v>
       </c>
       <c r="C87" t="n">
-        <v>18.40545290639405</v>
+        <v>-33.47609427593083</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21.50971332423786</v>
+        <v>25.65440405283548</v>
       </c>
       <c r="B88" t="n">
-        <v>34.02194850864853</v>
+        <v>-21.13988836050584</v>
       </c>
       <c r="C88" t="n">
-        <v>-31.46930661587809</v>
+        <v>38.25839442739841</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>21.40534415912778</v>
+        <v>31.87976941800118</v>
       </c>
       <c r="B89" t="n">
-        <v>-27.68549018912467</v>
+        <v>-17.22015868731786</v>
       </c>
       <c r="C89" t="n">
-        <v>57.54903966400556</v>
+        <v>39.38303720586858</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-21.20861748100666</v>
+        <v>-15.32928416766644</v>
       </c>
       <c r="B90" t="n">
-        <v>54.91783864951468</v>
+        <v>-26.22285836517034</v>
       </c>
       <c r="C90" t="n">
-        <v>20.74717574951031</v>
+        <v>34.88950801613169</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-31.21153155558674</v>
+        <v>18.13058402852349</v>
       </c>
       <c r="B91" t="n">
-        <v>-41.378750585193</v>
+        <v>20.8945230477798</v>
       </c>
       <c r="C91" t="n">
-        <v>41.2517338690692</v>
+        <v>-33.94130894099447</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-29.26673232180703</v>
+        <v>-4.116218262060183</v>
       </c>
       <c r="B92" t="n">
-        <v>-37.82091919223365</v>
+        <v>19.0570046046802</v>
       </c>
       <c r="C92" t="n">
-        <v>31.47910548819662</v>
+        <v>-31.5510691953384</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-18.64672720302167</v>
+        <v>-23.79924680075516</v>
       </c>
       <c r="B93" t="n">
-        <v>-33.63798479003638</v>
+        <v>11.18075248829501</v>
       </c>
       <c r="C93" t="n">
-        <v>-21.87915303138266</v>
+        <v>-28.08027906837154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-22.87540930621813</v>
+        <v>18.33033543720887</v>
       </c>
       <c r="B94" t="n">
-        <v>-17.83827564774269</v>
+        <v>-10.01715107016098</v>
       </c>
       <c r="C94" t="n">
-        <v>-22.93612382101801</v>
+        <v>-26.85193161459805</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>31.91309142240808</v>
+        <v>-43.73950842203564</v>
       </c>
       <c r="B95" t="n">
-        <v>-32.18844302194524</v>
+        <v>-17.80707380864757</v>
       </c>
       <c r="C95" t="n">
-        <v>16.73460695088782</v>
+        <v>-18.76956009948008</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>29.07874192161259</v>
+        <v>8.779411645980112</v>
       </c>
       <c r="B96" t="n">
-        <v>-28.68254011100002</v>
+        <v>22.73413171608045</v>
       </c>
       <c r="C96" t="n">
-        <v>-29.06090213473274</v>
+        <v>-35.82981764169089</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>63.14570237983472</v>
+        <v>-29.48147417304303</v>
       </c>
       <c r="B97" t="n">
-        <v>-31.83105226084726</v>
+        <v>-6.878072761039225</v>
       </c>
       <c r="C97" t="n">
-        <v>13.53152478874335</v>
+        <v>29.04639204386267</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-19.60059619963813</v>
+        <v>-21.31291032615438</v>
       </c>
       <c r="B98" t="n">
-        <v>-21.64242099594713</v>
+        <v>-31.27891619878544</v>
       </c>
       <c r="C98" t="n">
-        <v>-36.86435765744477</v>
+        <v>-27.40036327784139</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-19.96271396791303</v>
+        <v>14.06141420377465</v>
       </c>
       <c r="B99" t="n">
-        <v>57.97056344687008</v>
+        <v>-31.21164426967287</v>
       </c>
       <c r="C99" t="n">
-        <v>-17.42036810753946</v>
+        <v>-24.47357692073198</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-26.96372494862364</v>
+        <v>-18.62300944949842</v>
       </c>
       <c r="B100" t="n">
-        <v>63.76300341700326</v>
+        <v>9.846867500304652</v>
       </c>
       <c r="C100" t="n">
-        <v>-9.246029551557694</v>
+        <v>-31.5581051359615</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-34.0573309770613</v>
+        <v>-18.55715695723592</v>
       </c>
       <c r="B101" t="n">
-        <v>-22.90382230478301</v>
+        <v>-21.50759652120464</v>
       </c>
       <c r="C101" t="n">
-        <v>30.07607339744503</v>
+        <v>26.01269664629787</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.09780536512753</v>
+        <v>12.82914321101675</v>
       </c>
       <c r="B102" t="n">
-        <v>-12.11796774336558</v>
+        <v>17.4429621334966</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.167383981012006</v>
+        <v>-25.43907170332505</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26.805368996528</v>
+        <v>22.34626452492622</v>
       </c>
       <c r="B103" t="n">
-        <v>-18.75729325989303</v>
+        <v>51.51526752514511</v>
       </c>
       <c r="C103" t="n">
-        <v>-23.58989577716377</v>
+        <v>26.04415453817913</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>38.33083672275831</v>
+        <v>21.97509905608198</v>
       </c>
       <c r="B104" t="n">
-        <v>-28.86215359381596</v>
+        <v>17.32775989971957</v>
       </c>
       <c r="C104" t="n">
-        <v>-13.84794468423858</v>
+        <v>34.40273870160721</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>32.76568128033929</v>
+        <v>-35.27937941147137</v>
       </c>
       <c r="B105" t="n">
-        <v>51.34150496075336</v>
+        <v>-15.82190845741007</v>
       </c>
       <c r="C105" t="n">
-        <v>-26.46821292952165</v>
+        <v>-14.19538789962668</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-6.101291965134765</v>
+        <v>-28.11450959142613</v>
       </c>
       <c r="B106" t="n">
-        <v>4.718038337674172</v>
+        <v>8.751102404935082</v>
       </c>
       <c r="C106" t="n">
-        <v>-18.56775649390783</v>
+        <v>25.35916480946981</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>45.19339429062074</v>
+        <v>-31.28106200395306</v>
       </c>
       <c r="B107" t="n">
-        <v>-30.34766946045849</v>
+        <v>36.17657964902733</v>
       </c>
       <c r="C107" t="n">
-        <v>-32.87873120158586</v>
+        <v>38.10970120832908</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>14.75700060584307</v>
+        <v>-21.87156022386091</v>
       </c>
       <c r="B108" t="n">
-        <v>-29.36951755554638</v>
+        <v>29.65618826882192</v>
       </c>
       <c r="C108" t="n">
-        <v>-14.63334782551855</v>
+        <v>25.5480083809891</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-42.81306025501016</v>
+        <v>-38.87321345659755</v>
       </c>
       <c r="B109" t="n">
-        <v>15.0291953003783</v>
+        <v>-25.65430260382348</v>
       </c>
       <c r="C109" t="n">
-        <v>-24.23293231125955</v>
+        <v>30.28689115844709</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31.08786565929103</v>
+        <v>32.37833554507795</v>
       </c>
       <c r="B110" t="n">
-        <v>-11.51823934452417</v>
+        <v>16.06964966524048</v>
       </c>
       <c r="C110" t="n">
-        <v>-26.31884076495056</v>
+        <v>17.57336405384689</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>55.45848886937206</v>
+        <v>-29.9685184161394</v>
       </c>
       <c r="B111" t="n">
-        <v>-25.20271334840712</v>
+        <v>28.95082271041322</v>
       </c>
       <c r="C111" t="n">
-        <v>-24.07104916472302</v>
+        <v>-20.79542784974664</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>35.08792823102517</v>
+        <v>20.29797327802234</v>
       </c>
       <c r="B112" t="n">
-        <v>18.72544384078596</v>
+        <v>33.17445431687121</v>
       </c>
       <c r="C112" t="n">
-        <v>77.97398839365839</v>
+        <v>-17.17568097351581</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>19.81425044400628</v>
+        <v>-24.35471311701079</v>
       </c>
       <c r="B113" t="n">
-        <v>-22.67477780211912</v>
+        <v>-20.42568227315374</v>
       </c>
       <c r="C113" t="n">
-        <v>-9.008806644239243</v>
+        <v>17.66970388664977</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>38.37004348696481</v>
+        <v>-32.0562979982942</v>
       </c>
       <c r="B114" t="n">
-        <v>-32.25519972124159</v>
+        <v>-26.85329740704668</v>
       </c>
       <c r="C114" t="n">
-        <v>-10.23557431109851</v>
+        <v>-28.64440273472711</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.863982966851095</v>
+        <v>44.986090011614</v>
       </c>
       <c r="B115" t="n">
-        <v>-23.38617902122455</v>
+        <v>17.52921048316932</v>
       </c>
       <c r="C115" t="n">
-        <v>28.87317572298871</v>
+        <v>-39.99685741970872</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13.82621455592261</v>
+        <v>-36.67052436201678</v>
       </c>
       <c r="B116" t="n">
-        <v>-20.16987462525644</v>
+        <v>-29.00633013469668</v>
       </c>
       <c r="C116" t="n">
-        <v>-29.27596665912251</v>
+        <v>29.29681440767512</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>74.70980569658111</v>
+        <v>20.57325442441147</v>
       </c>
       <c r="B117" t="n">
-        <v>-16.16911130190089</v>
+        <v>31.83143929725438</v>
       </c>
       <c r="C117" t="n">
-        <v>-35.21743517516681</v>
+        <v>-20.11910156647629</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>33.49536556046522</v>
+        <v>-36.21833581159362</v>
       </c>
       <c r="B118" t="n">
-        <v>-31.08119692184119</v>
+        <v>-4.372888027211308</v>
       </c>
       <c r="C118" t="n">
-        <v>-31.79512090962826</v>
+        <v>-20.25582946688116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-14.68897949315245</v>
+        <v>-25.54239514089969</v>
       </c>
       <c r="B119" t="n">
-        <v>21.26674235753213</v>
+        <v>-27.53209494666252</v>
       </c>
       <c r="C119" t="n">
-        <v>16.50093482742244</v>
+        <v>-18.22223272837898</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>12.04954310673315</v>
+        <v>-27.35680052320062</v>
       </c>
       <c r="B120" t="n">
-        <v>4.620684105687331</v>
+        <v>-38.61995394813444</v>
       </c>
       <c r="C120" t="n">
-        <v>-25.03559982269119</v>
+        <v>-19.65351219017751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-23.63259551513472</v>
+        <v>22.63672048520047</v>
       </c>
       <c r="B121" t="n">
-        <v>47.08080570801916</v>
+        <v>-32.58498156280979</v>
       </c>
       <c r="C121" t="n">
-        <v>-40.35502021670598</v>
+        <v>-21.36806951981547</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-40.47576947289969</v>
+        <v>-28.73933310610395</v>
       </c>
       <c r="B122" t="n">
-        <v>-11.32134300565038</v>
+        <v>-16.33562464052214</v>
       </c>
       <c r="C122" t="n">
-        <v>-12.39966216701044</v>
+        <v>-15.93938769321353</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-12.54810762883086</v>
+        <v>-25.96551779421419</v>
       </c>
       <c r="B123" t="n">
-        <v>58.15212832770595</v>
+        <v>-38.18529542587432</v>
       </c>
       <c r="C123" t="n">
-        <v>48.73520770470681</v>
+        <v>21.35581772954091</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-28.20274366420719</v>
+        <v>26.05601552393011</v>
       </c>
       <c r="B124" t="n">
-        <v>7.532857124210462</v>
+        <v>-21.2966257323735</v>
       </c>
       <c r="C124" t="n">
-        <v>30.98557392837768</v>
+        <v>-26.16307555960176</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>45.6405738154131</v>
+        <v>-25.49999790239499</v>
       </c>
       <c r="B125" t="n">
-        <v>-19.60895893607969</v>
+        <v>33.5113116818815</v>
       </c>
       <c r="C125" t="n">
-        <v>-28.46603513402227</v>
+        <v>20.41395330758722</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.97052917540459</v>
+        <v>-33.30616043198874</v>
       </c>
       <c r="B126" t="n">
-        <v>-8.098663285518482</v>
+        <v>-34.58810663679281</v>
       </c>
       <c r="C126" t="n">
-        <v>47.42814058541785</v>
+        <v>-22.87988195338657</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-36.20445355347518</v>
+        <v>35.719236294917</v>
       </c>
       <c r="B127" t="n">
-        <v>-29.19268466301993</v>
+        <v>25.87754864479824</v>
       </c>
       <c r="C127" t="n">
-        <v>10.20406737446412</v>
+        <v>33.73553287722294</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>30.58543927292396</v>
+        <v>36.71396297292291</v>
       </c>
       <c r="B128" t="n">
-        <v>-26.77246062061673</v>
+        <v>18.86662741588933</v>
       </c>
       <c r="C128" t="n">
-        <v>7.363414961688285</v>
+        <v>27.33689405995248</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-33.64526784568314</v>
+        <v>-26.1916055779223</v>
       </c>
       <c r="B129" t="n">
-        <v>-35.21991095429851</v>
+        <v>34.267402988116</v>
       </c>
       <c r="C129" t="n">
-        <v>-19.55727585475982</v>
+        <v>-19.00330804279019</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>31.57404548499735</v>
+        <v>-24.95413837580336</v>
       </c>
       <c r="B130" t="n">
-        <v>-22.31445725855998</v>
+        <v>-25.13134333395644</v>
       </c>
       <c r="C130" t="n">
-        <v>-13.68172385227324</v>
+        <v>24.02035953402864</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-29.03676956728139</v>
+        <v>-22.17950356415863</v>
       </c>
       <c r="B131" t="n">
-        <v>-9.584374671234626</v>
+        <v>-19.09690325986016</v>
       </c>
       <c r="C131" t="n">
-        <v>-40.17205080110988</v>
+        <v>-26.80342369158956</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.960360980454515</v>
+        <v>23.81550483887923</v>
       </c>
       <c r="B132" t="n">
-        <v>49.23121164141483</v>
+        <v>-32.88543365248889</v>
       </c>
       <c r="C132" t="n">
-        <v>-49.91471700163537</v>
+        <v>34.3058188426013</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>25.7857385304266</v>
+        <v>21.73293721049138</v>
       </c>
       <c r="B133" t="n">
-        <v>-36.5902108611777</v>
+        <v>18.1023958694751</v>
       </c>
       <c r="C133" t="n">
-        <v>-13.68512162099377</v>
+        <v>16.16930584255732</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-27.09587565582568</v>
+        <v>-37.14722003534131</v>
       </c>
       <c r="B134" t="n">
-        <v>-16.8230945470028</v>
+        <v>14.30496753531383</v>
       </c>
       <c r="C134" t="n">
-        <v>-21.88953376412143</v>
+        <v>13.47895416959408</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-37.27232898878049</v>
+        <v>32.74330419356025</v>
       </c>
       <c r="B135" t="n">
-        <v>68.02485362216028</v>
+        <v>35.28571317470298</v>
       </c>
       <c r="C135" t="n">
-        <v>-23.8079473405387</v>
+        <v>23.52513707399209</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.479267042542407</v>
+        <v>20.36101392891643</v>
       </c>
       <c r="B136" t="n">
-        <v>-22.48244017336929</v>
+        <v>-19.6802782819936</v>
       </c>
       <c r="C136" t="n">
-        <v>-24.30623019049773</v>
+        <v>17.26070008780529</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>19.87391624283231</v>
+        <v>26.12539131442549</v>
       </c>
       <c r="B137" t="n">
-        <v>38.21783570995215</v>
+        <v>26.97444060175162</v>
       </c>
       <c r="C137" t="n">
-        <v>-13.95462832904651</v>
+        <v>-33.77003690297607</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-18.69706518540186</v>
+        <v>-15.31213215872274</v>
       </c>
       <c r="B138" t="n">
-        <v>74.28050200606083</v>
+        <v>-16.72749877120415</v>
       </c>
       <c r="C138" t="n">
-        <v>-24.80255184964198</v>
+        <v>-22.2612092804809</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>59.18470124630975</v>
+        <v>-12.38086611448141</v>
       </c>
       <c r="B139" t="n">
-        <v>-38.76052406084914</v>
+        <v>-30.35374564321507</v>
       </c>
       <c r="C139" t="n">
-        <v>43.36769786033916</v>
+        <v>-17.09247139112564</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-37.70975297764863</v>
+        <v>29.53193905780143</v>
       </c>
       <c r="B140" t="n">
-        <v>-19.08356799412141</v>
+        <v>-33.76174959144367</v>
       </c>
       <c r="C140" t="n">
-        <v>39.58160708281113</v>
+        <v>29.21801333862087</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>82.8224860025535</v>
+        <v>-13.09878987167149</v>
       </c>
       <c r="B141" t="n">
-        <v>-37.64774460755191</v>
+        <v>-41.15445519602621</v>
       </c>
       <c r="C141" t="n">
-        <v>-12.25986086226833</v>
+        <v>-30.12343678230367</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-21.58395356308227</v>
+        <v>25.33556147342446</v>
       </c>
       <c r="B142" t="n">
-        <v>-15.56536930045665</v>
+        <v>23.02814576853336</v>
       </c>
       <c r="C142" t="n">
-        <v>33.9892791112918</v>
+        <v>-37.09577294795869</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-38.56322293720834</v>
+        <v>32.59050348659757</v>
       </c>
       <c r="B143" t="n">
-        <v>54.30947656833198</v>
+        <v>-39.37100951648253</v>
       </c>
       <c r="C143" t="n">
-        <v>28.3531589695414</v>
+        <v>26.48613796126088</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>29.5345758618601</v>
+        <v>32.11238233950458</v>
       </c>
       <c r="B144" t="n">
-        <v>27.37757750730692</v>
+        <v>-18.71430013314954</v>
       </c>
       <c r="C144" t="n">
-        <v>-26.20631124320037</v>
+        <v>19.98852316791247</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-22.85503307275414</v>
+        <v>41.38187046564075</v>
       </c>
       <c r="B145" t="n">
-        <v>15.53678408538917</v>
+        <v>37.73915569002668</v>
       </c>
       <c r="C145" t="n">
-        <v>22.77603838963851</v>
+        <v>17.43252549267815</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-9.711170450086353</v>
+        <v>-16.03404721604986</v>
       </c>
       <c r="B146" t="n">
-        <v>-26.99901921711237</v>
+        <v>-29.1218325968433</v>
       </c>
       <c r="C146" t="n">
-        <v>74.09078665993306</v>
+        <v>27.53395021533308</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-27.15414091484356</v>
+        <v>-18.97351580332636</v>
       </c>
       <c r="B147" t="n">
-        <v>-20.09730376583006</v>
+        <v>25.8204150676895</v>
       </c>
       <c r="C147" t="n">
-        <v>-30.50772565242762</v>
+        <v>30.0359339810622</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-40.98130536206594</v>
+        <v>27.45145490266793</v>
       </c>
       <c r="B148" t="n">
-        <v>36.89188881504855</v>
+        <v>15.81363130097137</v>
       </c>
       <c r="C148" t="n">
-        <v>20.93225027265457</v>
+        <v>25.63992993132011</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3.79313324060569</v>
+        <v>27.75671098577366</v>
       </c>
       <c r="B149" t="n">
-        <v>-28.35015904059171</v>
+        <v>25.99859670307705</v>
       </c>
       <c r="C149" t="n">
-        <v>-20.67546235638567</v>
+        <v>-37.17675923246041</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-25.94751634825179</v>
+        <v>25.7805403663067</v>
       </c>
       <c r="B150" t="n">
-        <v>-9.379457771453</v>
+        <v>25.41537421360209</v>
       </c>
       <c r="C150" t="n">
-        <v>48.66009106708403</v>
+        <v>-28.46176131406085</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-25.6236110878245</v>
+        <v>21.41863292683894</v>
       </c>
       <c r="B151" t="n">
-        <v>-14.91656761404271</v>
+        <v>46.34716582017031</v>
       </c>
       <c r="C151" t="n">
-        <v>49.15866167014008</v>
+        <v>26.50811164271479</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-29.55757806143954</v>
+        <v>-16.73450257310987</v>
       </c>
       <c r="B2" t="n">
-        <v>-28.86995772819948</v>
+        <v>38.44686900971666</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.45911025403031</v>
+        <v>-39.17383614449493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-24.2111968971443</v>
+        <v>-34.57225165992826</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.95325627754968</v>
+        <v>25.47595506339741</v>
       </c>
       <c r="C3" t="n">
-        <v>7.066842610131599</v>
+        <v>-14.88714532957722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-16.23260797629286</v>
+        <v>21.90578018040879</v>
       </c>
       <c r="B4" t="n">
-        <v>51.27212191145873</v>
+        <v>-42.75202848245302</v>
       </c>
       <c r="C4" t="n">
-        <v>28.07653017048554</v>
+        <v>-37.69452389575401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18.34213500630818</v>
+        <v>-31.67264533915001</v>
       </c>
       <c r="B5" t="n">
-        <v>-13.04540577642232</v>
+        <v>33.08383200723462</v>
       </c>
       <c r="C5" t="n">
-        <v>30.12933639218904</v>
+        <v>-14.91773152931339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-19.81241513364403</v>
+        <v>-21.01764438556583</v>
       </c>
       <c r="B6" t="n">
-        <v>63.83765549267016</v>
+        <v>-21.40043305029734</v>
       </c>
       <c r="C6" t="n">
-        <v>28.39927853679707</v>
+        <v>14.55987205308195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27.75328189380822</v>
+        <v>-16.99926223129098</v>
       </c>
       <c r="B7" t="n">
-        <v>37.31836744019966</v>
+        <v>-22.43721729231481</v>
       </c>
       <c r="C7" t="n">
-        <v>-23.22718826817684</v>
+        <v>-31.20058621796974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25.26221522175021</v>
+        <v>28.65688933664168</v>
       </c>
       <c r="B8" t="n">
-        <v>18.04695172418981</v>
+        <v>26.75527444870905</v>
       </c>
       <c r="C8" t="n">
-        <v>8.991978492663536</v>
+        <v>-25.69686947646404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.3480313532628</v>
+        <v>-16.34896660694516</v>
       </c>
       <c r="B9" t="n">
-        <v>-17.8401874824021</v>
+        <v>-13.48559607395832</v>
       </c>
       <c r="C9" t="n">
-        <v>-24.95327803109629</v>
+        <v>35.92708020934364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-18.48659286817622</v>
+        <v>-36.03289508776388</v>
       </c>
       <c r="B10" t="n">
-        <v>31.55988417005408</v>
+        <v>-28.67484091667845</v>
       </c>
       <c r="C10" t="n">
-        <v>-24.20769704557702</v>
+        <v>28.12876667148213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.880925003959465</v>
+        <v>-29.37335419025009</v>
       </c>
       <c r="B11" t="n">
-        <v>-30.67188490784191</v>
+        <v>24.16365761192506</v>
       </c>
       <c r="C11" t="n">
-        <v>76.56805434951211</v>
+        <v>23.83327838872365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-15.81433591804308</v>
+        <v>-22.31133089999116</v>
       </c>
       <c r="B12" t="n">
-        <v>43.35097850997928</v>
+        <v>-15.58778431768222</v>
       </c>
       <c r="C12" t="n">
-        <v>10.29178511031074</v>
+        <v>-16.87200419189537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-35.17387452147864</v>
+        <v>35.02592169774554</v>
       </c>
       <c r="B13" t="n">
-        <v>-12.98621316230647</v>
+        <v>-29.19685243847082</v>
       </c>
       <c r="C13" t="n">
-        <v>32.22456419044923</v>
+        <v>-29.23746204324127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>35.26685166022515</v>
+        <v>-36.21125731203808</v>
       </c>
       <c r="B14" t="n">
-        <v>-12.91207821452837</v>
+        <v>-28.24395632635711</v>
       </c>
       <c r="C14" t="n">
-        <v>35.94108188115965</v>
+        <v>-19.37962753144971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-18.78880653592421</v>
+        <v>26.92492980587269</v>
       </c>
       <c r="B15" t="n">
-        <v>-24.21302287103719</v>
+        <v>-17.44730118233143</v>
       </c>
       <c r="C15" t="n">
-        <v>36.0971581148611</v>
+        <v>32.67992927430763</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-15.97571333300739</v>
+        <v>-12.06780723772738</v>
       </c>
       <c r="B16" t="n">
-        <v>-34.134404750408</v>
+        <v>41.81147218406024</v>
       </c>
       <c r="C16" t="n">
-        <v>-33.20364529295446</v>
+        <v>-33.4051399285092</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.96638049006152</v>
+        <v>-25.20996666895061</v>
       </c>
       <c r="B17" t="n">
-        <v>21.67399112531874</v>
+        <v>19.53063962653854</v>
       </c>
       <c r="C17" t="n">
-        <v>20.02897545028006</v>
+        <v>20.59299979224931</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-24.24279667524037</v>
+        <v>-15.6021126660751</v>
       </c>
       <c r="B18" t="n">
-        <v>-39.05516474069243</v>
+        <v>-29.61554345601974</v>
       </c>
       <c r="C18" t="n">
-        <v>48.70128944688997</v>
+        <v>34.82751411327815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.456865332930388</v>
+        <v>-26.71675552763445</v>
       </c>
       <c r="B19" t="n">
-        <v>30.95837006911733</v>
+        <v>-23.49297197861861</v>
       </c>
       <c r="C19" t="n">
-        <v>17.71796080560765</v>
+        <v>20.76226933756291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-24.2579920671479</v>
+        <v>25.36102552444937</v>
       </c>
       <c r="B20" t="n">
-        <v>-25.54820179315131</v>
+        <v>-20.13237727741933</v>
       </c>
       <c r="C20" t="n">
-        <v>-22.2035458610908</v>
+        <v>28.73895633980413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-15.71673297191879</v>
+        <v>33.81664475708661</v>
       </c>
       <c r="B21" t="n">
-        <v>-32.47091270967113</v>
+        <v>27.66729383673404</v>
       </c>
       <c r="C21" t="n">
-        <v>10.95105935304615</v>
+        <v>-29.07654383168284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-24.37721246543713</v>
+        <v>-23.0679204417998</v>
       </c>
       <c r="B22" t="n">
-        <v>-32.67193496814231</v>
+        <v>30.43257942487468</v>
       </c>
       <c r="C22" t="n">
-        <v>-24.69276672079705</v>
+        <v>-33.81268461359493</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.86877632137046</v>
+        <v>-22.07047396864199</v>
       </c>
       <c r="B23" t="n">
-        <v>18.53243916042888</v>
+        <v>38.34635017308401</v>
       </c>
       <c r="C23" t="n">
-        <v>-21.15046671067972</v>
+        <v>30.83483018538204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-6.512881428423664</v>
+        <v>1.714406837597996</v>
       </c>
       <c r="B24" t="n">
-        <v>-31.57885579393331</v>
+        <v>-13.99573804241305</v>
       </c>
       <c r="C24" t="n">
-        <v>22.83034184418088</v>
+        <v>-19.49597756601293</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-31.34220777587644</v>
+        <v>25.12743539324675</v>
       </c>
       <c r="B25" t="n">
-        <v>29.38232269411958</v>
+        <v>-25.59224547027694</v>
       </c>
       <c r="C25" t="n">
-        <v>-21.99159423522051</v>
+        <v>29.42896121392024</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-5.944021683075853</v>
+        <v>-22.72703716463941</v>
       </c>
       <c r="B26" t="n">
-        <v>-13.10402224911845</v>
+        <v>-26.94676749564147</v>
       </c>
       <c r="C26" t="n">
-        <v>54.88129807298071</v>
+        <v>-28.43769964621605</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-40.01236329870699</v>
+        <v>24.26507652508371</v>
       </c>
       <c r="B27" t="n">
-        <v>-22.58967288991664</v>
+        <v>14.95207452172096</v>
       </c>
       <c r="C27" t="n">
-        <v>-19.62417341691876</v>
+        <v>-27.69722718899852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-36.94508633996033</v>
+        <v>-31.5797525059599</v>
       </c>
       <c r="B28" t="n">
-        <v>44.41196734147329</v>
+        <v>26.29675883272734</v>
       </c>
       <c r="C28" t="n">
-        <v>-28.30326223100635</v>
+        <v>-25.27495860114302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29.2270837065288</v>
+        <v>39.65137640208323</v>
       </c>
       <c r="B29" t="n">
-        <v>-19.07458920634875</v>
+        <v>26.3935469968818</v>
       </c>
       <c r="C29" t="n">
-        <v>-40.26678601265665</v>
+        <v>-10.65973272794034</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-28.99857156835855</v>
+        <v>-20.50789575530047</v>
       </c>
       <c r="B30" t="n">
-        <v>-15.35973057313618</v>
+        <v>-28.60359223980939</v>
       </c>
       <c r="C30" t="n">
-        <v>-29.16083730664743</v>
+        <v>20.70039352083771</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-26.76899265267782</v>
+        <v>28.23576998916214</v>
       </c>
       <c r="B31" t="n">
-        <v>11.33688209962645</v>
+        <v>-19.27605497847818</v>
       </c>
       <c r="C31" t="n">
-        <v>-23.71390201006375</v>
+        <v>-21.90890185609519</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-25.01911043937825</v>
+        <v>-19.5513534338705</v>
       </c>
       <c r="B32" t="n">
-        <v>2.878890647146526</v>
+        <v>-33.82707539526385</v>
       </c>
       <c r="C32" t="n">
-        <v>13.00355189262672</v>
+        <v>-23.49766652016592</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>62.04957799465206</v>
+        <v>-27.28004161147775</v>
       </c>
       <c r="B33" t="n">
-        <v>-14.96766747611474</v>
+        <v>-18.36307427214086</v>
       </c>
       <c r="C33" t="n">
-        <v>44.79474936381366</v>
+        <v>-25.44924733970896</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66.5462679746024</v>
+        <v>-24.75102927478228</v>
       </c>
       <c r="B34" t="n">
-        <v>8.232289898341927</v>
+        <v>15.79913114210606</v>
       </c>
       <c r="C34" t="n">
-        <v>45.05082170056397</v>
+        <v>41.84271229778251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-25.94540998329544</v>
+        <v>37.92011360168813</v>
       </c>
       <c r="B35" t="n">
-        <v>27.07248453931462</v>
+        <v>28.26464556143203</v>
       </c>
       <c r="C35" t="n">
-        <v>-26.1126724361747</v>
+        <v>21.73747930255273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.721298398491092</v>
+        <v>20.00465125053839</v>
       </c>
       <c r="B36" t="n">
-        <v>68.05471472258289</v>
+        <v>36.0278990561061</v>
       </c>
       <c r="C36" t="n">
-        <v>5.998910614005288</v>
+        <v>-33.61873284535266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-25.05735779152446</v>
+        <v>21.44177739521015</v>
       </c>
       <c r="B37" t="n">
-        <v>-17.30591273903894</v>
+        <v>-26.266997445761</v>
       </c>
       <c r="C37" t="n">
-        <v>-31.43512208748016</v>
+        <v>-37.57851261022184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-41.92633584922758</v>
+        <v>33.16991633453983</v>
       </c>
       <c r="B38" t="n">
-        <v>26.11090871088913</v>
+        <v>15.45076661235699</v>
       </c>
       <c r="C38" t="n">
-        <v>19.38084819320621</v>
+        <v>20.49735655150733</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>33.74302603844777</v>
+        <v>26.86299371612356</v>
       </c>
       <c r="B39" t="n">
-        <v>-24.61590793378646</v>
+        <v>-27.8240457052465</v>
       </c>
       <c r="C39" t="n">
-        <v>20.93848535442218</v>
+        <v>16.01802025759763</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>51.8433724797585</v>
+        <v>21.20941277299421</v>
       </c>
       <c r="B40" t="n">
-        <v>11.40313172517551</v>
+        <v>-21.02358157459922</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.842201378173703</v>
+        <v>-16.73515854628016</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-32.06115825278211</v>
+        <v>-14.291724141609</v>
       </c>
       <c r="B41" t="n">
-        <v>-15.58953833012128</v>
+        <v>-29.64100738579088</v>
       </c>
       <c r="C41" t="n">
-        <v>-25.20550120612205</v>
+        <v>-30.44934791824905</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-21.96222739238413</v>
+        <v>-36.85444192764223</v>
       </c>
       <c r="B42" t="n">
-        <v>-37.93029076777859</v>
+        <v>-27.14433901141066</v>
       </c>
       <c r="C42" t="n">
-        <v>-9.957561801728662</v>
+        <v>24.72415961164677</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-3.861311082330108</v>
+        <v>-31.20005200021365</v>
       </c>
       <c r="B43" t="n">
-        <v>-31.48404104860285</v>
+        <v>43.35138361756199</v>
       </c>
       <c r="C43" t="n">
-        <v>67.2713616341382</v>
+        <v>20.87566345442222</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>59.27220005072784</v>
+        <v>-15.46707429624985</v>
       </c>
       <c r="B44" t="n">
-        <v>-28.82481311696174</v>
+        <v>-18.43584592458163</v>
       </c>
       <c r="C44" t="n">
-        <v>-22.66876635089555</v>
+        <v>20.58738521173578</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-18.67126607918153</v>
+        <v>-33.49961437542919</v>
       </c>
       <c r="B45" t="n">
-        <v>-6.535893553734311</v>
+        <v>24.54836022963319</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.2902558819465</v>
+        <v>-26.92474544362893</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>48.29504657604048</v>
+        <v>-20.24752900448449</v>
       </c>
       <c r="B46" t="n">
-        <v>-25.42548721843164</v>
+        <v>2.661003741417535</v>
       </c>
       <c r="C46" t="n">
-        <v>15.05515029901791</v>
+        <v>26.36305279703094</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-35.9054679520144</v>
+        <v>12.23597117410756</v>
       </c>
       <c r="B47" t="n">
-        <v>-29.65340233335693</v>
+        <v>28.94120643972688</v>
       </c>
       <c r="C47" t="n">
-        <v>-24.91263607022051</v>
+        <v>-35.69679550716115</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-15.0968577414457</v>
+        <v>-39.96708093629988</v>
       </c>
       <c r="B48" t="n">
-        <v>-40.8411234905808</v>
+        <v>13.74358801220046</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.16483978133622</v>
+        <v>42.15436460326629</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52.86136542580383</v>
+        <v>24.41393798857881</v>
       </c>
       <c r="B49" t="n">
-        <v>-21.93948646431905</v>
+        <v>-14.90635412803774</v>
       </c>
       <c r="C49" t="n">
-        <v>10.54159131725677</v>
+        <v>16.64564054301406</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9.926795639579156</v>
+        <v>40.50371949359066</v>
       </c>
       <c r="B50" t="n">
-        <v>-17.73184913290714</v>
+        <v>22.70857123467669</v>
       </c>
       <c r="C50" t="n">
-        <v>-28.28139183990229</v>
+        <v>28.19933217719818</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.047786984725552</v>
+        <v>18.57760602444944</v>
       </c>
       <c r="B51" t="n">
-        <v>-41.72861727637083</v>
+        <v>-23.69381107493814</v>
       </c>
       <c r="C51" t="n">
-        <v>12.64357515049746</v>
+        <v>31.8813650840304</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-31.33006698747464</v>
+        <v>3.35356944360041</v>
       </c>
       <c r="B52" t="n">
-        <v>11.39326382341005</v>
+        <v>-37.56963143937198</v>
       </c>
       <c r="C52" t="n">
-        <v>-18.58186959222549</v>
+        <v>-5.504891701796354</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42.36864977125509</v>
+        <v>10.37078403757257</v>
       </c>
       <c r="B53" t="n">
-        <v>34.70384918728161</v>
+        <v>15.90306137055281</v>
       </c>
       <c r="C53" t="n">
-        <v>-8.320535765115014</v>
+        <v>33.81170011550208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.405093693126251</v>
+        <v>-16.30481789688528</v>
       </c>
       <c r="B54" t="n">
-        <v>-20.74477931765321</v>
+        <v>23.4868863463713</v>
       </c>
       <c r="C54" t="n">
-        <v>-28.29490421946392</v>
+        <v>-19.80908550612308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>31.00924065171645</v>
+        <v>30.3523286127525</v>
       </c>
       <c r="B55" t="n">
-        <v>-28.91298551636552</v>
+        <v>-17.82216230866863</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.578274902430167</v>
+        <v>-23.96077891921484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-26.42388364781167</v>
+        <v>-36.65029453941381</v>
       </c>
       <c r="B56" t="n">
-        <v>-35.61601264423939</v>
+        <v>-21.17228714505453</v>
       </c>
       <c r="C56" t="n">
-        <v>-25.6847333160477</v>
+        <v>-22.8449668779808</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.55141050793153</v>
+        <v>33.21080690045402</v>
       </c>
       <c r="B57" t="n">
-        <v>-14.85145329674185</v>
+        <v>20.86133332742559</v>
       </c>
       <c r="C57" t="n">
-        <v>-18.59659523880536</v>
+        <v>26.92087300098251</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28.53645111920456</v>
+        <v>14.98312048259824</v>
       </c>
       <c r="B58" t="n">
-        <v>-22.48267970471821</v>
+        <v>-21.15922991845027</v>
       </c>
       <c r="C58" t="n">
-        <v>50.85330719621086</v>
+        <v>17.90921959486917</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.29266900212935</v>
+        <v>21.59132777291871</v>
       </c>
       <c r="B59" t="n">
-        <v>-25.68837811171781</v>
+        <v>28.31594435044351</v>
       </c>
       <c r="C59" t="n">
-        <v>58.5373178559902</v>
+        <v>-21.83882920677473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>25.2239956827823</v>
+        <v>32.56240350536311</v>
       </c>
       <c r="B60" t="n">
-        <v>-17.72464111628359</v>
+        <v>-36.92648813450744</v>
       </c>
       <c r="C60" t="n">
-        <v>13.93396471787086</v>
+        <v>-9.366452276615073</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-30.19042888097917</v>
+        <v>41.31172743469756</v>
       </c>
       <c r="B61" t="n">
-        <v>16.52425766261802</v>
+        <v>10.69560991799391</v>
       </c>
       <c r="C61" t="n">
-        <v>12.66073763724198</v>
+        <v>30.05980289837559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-32.47844644743724</v>
+        <v>35.77251174409732</v>
       </c>
       <c r="B62" t="n">
-        <v>-22.40478419926525</v>
+        <v>16.62648072727931</v>
       </c>
       <c r="C62" t="n">
-        <v>-44.10010087603884</v>
+        <v>-13.97546157359215</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-38.05705746207406</v>
+        <v>-16.1994605680364</v>
       </c>
       <c r="B63" t="n">
-        <v>-55.65723074589422</v>
+        <v>-22.65237348947685</v>
       </c>
       <c r="C63" t="n">
-        <v>66.63571146387393</v>
+        <v>23.83244677023413</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-21.28229776153284</v>
+        <v>-42.16439387047354</v>
       </c>
       <c r="B64" t="n">
-        <v>36.05561981684547</v>
+        <v>22.72500213168729</v>
       </c>
       <c r="C64" t="n">
-        <v>-27.54139990983431</v>
+        <v>-19.66014380789359</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-13.89368533264607</v>
+        <v>25.31682061209491</v>
       </c>
       <c r="B65" t="n">
-        <v>37.50826042988209</v>
+        <v>-13.93914358532527</v>
       </c>
       <c r="C65" t="n">
-        <v>-38.51676168576186</v>
+        <v>19.89626430507497</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-26.8967522731315</v>
+        <v>16.87533791721305</v>
       </c>
       <c r="B66" t="n">
-        <v>-23.90475203204209</v>
+        <v>-24.37691495034157</v>
       </c>
       <c r="C66" t="n">
-        <v>-19.23373157189372</v>
+        <v>-24.1441889954201</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>71.77811782151542</v>
+        <v>30.58770752957863</v>
       </c>
       <c r="B67" t="n">
-        <v>11.73337850021511</v>
+        <v>-33.10927126583677</v>
       </c>
       <c r="C67" t="n">
-        <v>39.82284204877074</v>
+        <v>-37.69185531484153</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-26.37018561248518</v>
+        <v>-20.5101654669789</v>
       </c>
       <c r="B68" t="n">
-        <v>61.53622755002912</v>
+        <v>21.41904174020914</v>
       </c>
       <c r="C68" t="n">
-        <v>46.28143952305399</v>
+        <v>-11.09901813264619</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-29.50945612345939</v>
+        <v>26.96334712190608</v>
       </c>
       <c r="B69" t="n">
-        <v>-31.44883926068761</v>
+        <v>31.9832669980635</v>
       </c>
       <c r="C69" t="n">
-        <v>34.6548444355067</v>
+        <v>47.64060180769894</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-21.696390515004</v>
+        <v>37.24461073791336</v>
       </c>
       <c r="B70" t="n">
-        <v>30.49794947125011</v>
+        <v>28.44263283888377</v>
       </c>
       <c r="C70" t="n">
-        <v>-21.58406581544365</v>
+        <v>-30.19868400811931</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-5.943783534094256</v>
+        <v>-15.49410460204365</v>
       </c>
       <c r="B71" t="n">
-        <v>44.46997040900595</v>
+        <v>19.11828074549924</v>
       </c>
       <c r="C71" t="n">
-        <v>22.91902921817712</v>
+        <v>13.55055065847152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-23.04773377858795</v>
+        <v>18.97190324937499</v>
       </c>
       <c r="B72" t="n">
-        <v>55.31120724230858</v>
+        <v>18.2716080309738</v>
       </c>
       <c r="C72" t="n">
-        <v>51.90368577697935</v>
+        <v>-30.59408542129603</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-30.77010997047412</v>
+        <v>20.48073487174098</v>
       </c>
       <c r="B73" t="n">
-        <v>-35.94938527846785</v>
+        <v>-32.87621386773006</v>
       </c>
       <c r="C73" t="n">
-        <v>25.78022567327532</v>
+        <v>-34.47087151194372</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.208078634473148</v>
+        <v>-27.92547375568981</v>
       </c>
       <c r="B74" t="n">
-        <v>-21.29329705428346</v>
+        <v>21.87508960100741</v>
       </c>
       <c r="C74" t="n">
-        <v>28.36380728067275</v>
+        <v>-44.23732398249665</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-28.56365533806958</v>
+        <v>14.35547898297206</v>
       </c>
       <c r="B75" t="n">
-        <v>66.2529978238844</v>
+        <v>37.76834512595808</v>
       </c>
       <c r="C75" t="n">
-        <v>-36.82268303233156</v>
+        <v>21.02490342957698</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>19.88621344391573</v>
+        <v>36.75382283713046</v>
       </c>
       <c r="B76" t="n">
-        <v>29.52415038661955</v>
+        <v>14.97641067349067</v>
       </c>
       <c r="C76" t="n">
-        <v>-35.30372138461524</v>
+        <v>27.05241917889218</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-42.46899982328347</v>
+        <v>20.66091804099533</v>
       </c>
       <c r="B77" t="n">
-        <v>-13.07712605228362</v>
+        <v>16.98120015324322</v>
       </c>
       <c r="C77" t="n">
-        <v>-22.00655527544809</v>
+        <v>-27.37281375353715</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-26.18654273346046</v>
+        <v>27.04717843957325</v>
       </c>
       <c r="B78" t="n">
-        <v>-23.48759286613141</v>
+        <v>-18.94816242789905</v>
       </c>
       <c r="C78" t="n">
-        <v>38.77715580327322</v>
+        <v>-35.96624073662992</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-26.88106972597849</v>
+        <v>25.82200967343002</v>
       </c>
       <c r="B79" t="n">
-        <v>-25.37275281139152</v>
+        <v>8.343370222501237</v>
       </c>
       <c r="C79" t="n">
-        <v>57.86598619255352</v>
+        <v>10.15269221973844</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-35.8289821267524</v>
+        <v>25.76265649822412</v>
       </c>
       <c r="B80" t="n">
-        <v>-26.17013825433668</v>
+        <v>-35.25687902841921</v>
       </c>
       <c r="C80" t="n">
-        <v>29.58821197111666</v>
+        <v>25.85439235111943</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>14.78537527469273</v>
+        <v>-33.38762126813856</v>
       </c>
       <c r="B81" t="n">
-        <v>-32.00977165083131</v>
+        <v>29.97723361552075</v>
       </c>
       <c r="C81" t="n">
-        <v>-23.3312585642148</v>
+        <v>55.03852459422311</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>45.55392423984555</v>
+        <v>14.64807258636394</v>
       </c>
       <c r="B82" t="n">
-        <v>58.53106205218079</v>
+        <v>-17.67081171970448</v>
       </c>
       <c r="C82" t="n">
-        <v>-14.12670348921958</v>
+        <v>-26.29055349138127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.7487015891194</v>
+        <v>-28.02384678348564</v>
       </c>
       <c r="B83" t="n">
-        <v>7.230591082133194</v>
+        <v>-29.40466306299508</v>
       </c>
       <c r="C83" t="n">
-        <v>26.96607546889046</v>
+        <v>-32.65968871975485</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6.272723601469726</v>
+        <v>17.56032307110864</v>
       </c>
       <c r="B84" t="n">
-        <v>39.26731365477187</v>
+        <v>27.08757274477141</v>
       </c>
       <c r="C84" t="n">
-        <v>26.82639423036931</v>
+        <v>30.80450219634828</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-16.38048803846811</v>
+        <v>-18.6288187959152</v>
       </c>
       <c r="B85" t="n">
-        <v>-32.89296360139547</v>
+        <v>27.10423403996503</v>
       </c>
       <c r="C85" t="n">
-        <v>-8.036383066534908</v>
+        <v>16.53140737617381</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>52.292539586773</v>
+        <v>-38.09075840055444</v>
       </c>
       <c r="B86" t="n">
-        <v>13.1448733693897</v>
+        <v>34.28664338238344</v>
       </c>
       <c r="C86" t="n">
-        <v>-25.35529551081143</v>
+        <v>-13.241050589235</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>17.08099623261382</v>
+        <v>-29.61366636126019</v>
       </c>
       <c r="B87" t="n">
-        <v>-31.33847399276628</v>
+        <v>-25.49579040989723</v>
       </c>
       <c r="C87" t="n">
-        <v>-34.62185088495058</v>
+        <v>13.31397081446065</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-27.47873698687314</v>
+        <v>-28.80392001046645</v>
       </c>
       <c r="B88" t="n">
-        <v>49.84252295110413</v>
+        <v>-27.45751913727059</v>
       </c>
       <c r="C88" t="n">
-        <v>-19.70876873620051</v>
+        <v>33.5638286293211</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-17.15402991734454</v>
+        <v>-18.34652022624804</v>
       </c>
       <c r="B89" t="n">
-        <v>-8.606304569373915</v>
+        <v>14.86663227357394</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.72575353011275</v>
+        <v>-31.6530606222431</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-23.95814961669222</v>
+        <v>29.41909728456244</v>
       </c>
       <c r="B90" t="n">
-        <v>-31.41168815560687</v>
+        <v>-24.82700140719315</v>
       </c>
       <c r="C90" t="n">
-        <v>-15.25947468931982</v>
+        <v>25.44318806467462</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>38.10771790549241</v>
+        <v>-30.54204927372799</v>
       </c>
       <c r="B91" t="n">
-        <v>50.75275595055518</v>
+        <v>27.32587368124088</v>
       </c>
       <c r="C91" t="n">
-        <v>25.39929675403962</v>
+        <v>50.0384667833456</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-17.40903452216883</v>
+        <v>11.60815231314466</v>
       </c>
       <c r="B92" t="n">
-        <v>-28.145038557593</v>
+        <v>-28.47660133919647</v>
       </c>
       <c r="C92" t="n">
-        <v>-15.95083050582075</v>
+        <v>-25.42408054808301</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-17.64860430716033</v>
+        <v>36.65008868817866</v>
       </c>
       <c r="B93" t="n">
-        <v>19.04855780372069</v>
+        <v>18.26166082139099</v>
       </c>
       <c r="C93" t="n">
-        <v>-28.30758614051517</v>
+        <v>-10.47359179371264</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>21.9141204684713</v>
+        <v>-20.3520623239861</v>
       </c>
       <c r="B94" t="n">
-        <v>-23.37271192276385</v>
+        <v>-31.75328077860505</v>
       </c>
       <c r="C94" t="n">
-        <v>-19.02347328641193</v>
+        <v>18.93108470580634</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>24.49277414798923</v>
+        <v>-23.15924738073427</v>
       </c>
       <c r="B95" t="n">
-        <v>-28.32497158412873</v>
+        <v>23.12818327924477</v>
       </c>
       <c r="C95" t="n">
-        <v>-26.68136237802687</v>
+        <v>20.84072633265805</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>42.20757515860443</v>
+        <v>-8.81797968424315</v>
       </c>
       <c r="B96" t="n">
-        <v>-21.17617689607558</v>
+        <v>23.82382264294876</v>
       </c>
       <c r="C96" t="n">
-        <v>-26.4447171943801</v>
+        <v>-33.12214906886813</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>21.04920759255088</v>
+        <v>19.36909074940272</v>
       </c>
       <c r="B97" t="n">
-        <v>-32.61759115694176</v>
+        <v>35.15510408566471</v>
       </c>
       <c r="C97" t="n">
-        <v>29.16822536039397</v>
+        <v>53.0672429618704</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-21.45684027356341</v>
+        <v>21.05426287906504</v>
       </c>
       <c r="B98" t="n">
-        <v>20.65830763599331</v>
+        <v>19.79057526848761</v>
       </c>
       <c r="C98" t="n">
-        <v>67.05559548494496</v>
+        <v>-29.61275270357651</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20.18803469943892</v>
+        <v>31.08985987593652</v>
       </c>
       <c r="B99" t="n">
-        <v>-13.12381052198413</v>
+        <v>16.38713038453595</v>
       </c>
       <c r="C99" t="n">
-        <v>32.09963512637406</v>
+        <v>-24.16024732996065</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20.16838070268818</v>
+        <v>-27.98820331912326</v>
       </c>
       <c r="B100" t="n">
-        <v>17.97847433673697</v>
+        <v>10.10124891990188</v>
       </c>
       <c r="C100" t="n">
-        <v>-33.63522913159412</v>
+        <v>34.77960200942368</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-22.4192857338924</v>
+        <v>-26.12976902882738</v>
       </c>
       <c r="B101" t="n">
-        <v>-24.10434469312002</v>
+        <v>-32.01975144160661</v>
       </c>
       <c r="C101" t="n">
-        <v>23.2089910235645</v>
+        <v>24.0565962302143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-27.30538570397788</v>
+        <v>-21.70245913845796</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-27.51678343870286</v>
+        <v>27.13580399017198</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-19.39602282249605</v>
+        <v>-16.30558183451873</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-12.62808024157141</v>
+        <v>-31.355461888159</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>29.95184156303297</v>
+        <v>6.36505799336379</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-26.19698756456396</v>
+        <v>24.63711430161191</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>46.56964223609496</v>
+        <v>27.5071263443196</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-29.4363133157944</v>
+        <v>7.489573941596665</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-21.3533999053024</v>
+        <v>-34.17902607716798</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-30.36834138573406</v>
+        <v>13.72871107345756</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-16.37482109954903</v>
+        <v>-23.1272676556136</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>42.29238889153002</v>
+        <v>-39.11566961428679</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-19.35882239180389</v>
+        <v>-45.63987940137547</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-29.77008795934596</v>
+        <v>31.89672253794861</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.806896538939494</v>
+        <v>22.74540176277778</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>57.94749572039137</v>
+        <v>32.78440007292336</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.241921243780406</v>
+        <v>18.84702353656992</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-26.1131332968133</v>
+        <v>-29.75827328410994</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-21.77019445810262</v>
+        <v>21.02964907394589</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>27.01826717458117</v>
+        <v>-13.11876524954378</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-22.88005290483505</v>
+        <v>24.92072099393134</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>58.46459002146651</v>
+        <v>-28.58211719003021</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-23.7526793022247</v>
+        <v>-32.04163743417007</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.561560346755191</v>
+        <v>-31.48332986370866</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-30.97488687323293</v>
+        <v>-35.3383517723791</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.0417074259083904</v>
+        <v>15.45959954365959</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-24.41885972659478</v>
+        <v>22.66004074187608</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-25.27224647067281</v>
+        <v>19.48804248971243</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>23.14751252394733</v>
+        <v>15.21577190466366</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-20.99092439839358</v>
+        <v>-18.02090788054973</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-16.41415332301226</v>
+        <v>-24.65082255503711</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>46.00021489088345</v>
+        <v>-44.34235498154084</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>44.72944623904392</v>
+        <v>-33.86498447982248</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-36.49737204216256</v>
+        <v>-23.38714458862958</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>47.42793613603271</v>
+        <v>-34.16500629728471</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-28.88843554721543</v>
+        <v>-40.72543407245217</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>27.63624390984215</v>
+        <v>-30.63295592703392</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>21.19841364018442</v>
+        <v>-27.59750945738053</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>14.76845322783389</v>
+        <v>-24.12764180214203</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.309868792162802</v>
+        <v>-17.16841926911684</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-33.4189399180113</v>
+        <v>-19.06517665074429</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-27.42104983998857</v>
+        <v>24.28126002555223</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-2.081018278004906</v>
+        <v>21.07075735524259</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-19.81835825821149</v>
+        <v>-8.921527879058933</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-28.14010249632043</v>
+        <v>34.66159118306131</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-17.66329846303409</v>
+        <v>-3.857506796601803</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-31.66806647315574</v>
+        <v>-11.86804653642131</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>16.83323393121511</v>
+        <v>27.49412067348247</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-3.990212200144484</v>
+        <v>-26.93151745685669</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-37.698842076411</v>
+        <v>31.43641538207339</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
